--- a/プログラミング研究会　会則.xlsx
+++ b/プログラミング研究会　会則.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kosenjp-my.sharepoint.com/personal/p190052_kushiro_kosen-ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.DESKTOP\新しいフォルダー (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="8_{EB418496-CFB1-42A8-AE4B-DDC376F4FCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7BB8A6-80A8-4809-8983-92956B5AA416}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160688E-466D-4D32-B630-8B7CDE082DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E2785259-0D67-4984-8064-EF640716125F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$99</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>第1章　総　則</t>
   </si>
@@ -47,9 +47,6 @@
   <si>
     <t>第1条</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本会は釧路工業高等専門学校プログラム研究会(以下プロ研という)と称する。</t>
   </si>
   <si>
     <t>(所在地)</t>
@@ -788,6 +785,52 @@
   </si>
   <si>
     <t>釧路工業高等専門学校プログラミング研究会 会則</t>
+  </si>
+  <si>
+    <t>本会は釧路工業高等専門学校プログラミング研究会(以下プロ研という)と称する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(規約改正)</t>
+    <rPh sb="1" eb="3">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和3年7月14日、第1条を改正し承認された。</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -919,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,44 +1020,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B7FA1B-7E79-4B01-ABB8-3E6230AFA048}">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1343,44 +1392,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="A1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
@@ -1402,18 +1451,18 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
@@ -1432,7 +1481,7 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1448,19 +1497,19 @@
     </row>
     <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="10"/>
       <c r="L9" s="5"/>
     </row>
@@ -1480,7 +1529,7 @@
     </row>
     <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -1496,22 +1545,22 @@
     </row>
     <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
@@ -1529,7 +1578,7 @@
     </row>
     <row r="14" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1545,17 +1594,17 @@
     </row>
     <row r="15" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1567,31 +1616,31 @@
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="D16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
@@ -1615,15 +1664,15 @@
       <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="D19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
@@ -1647,41 +1696,41 @@
       <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="D21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="A23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="25" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1698,18 +1747,18 @@
     </row>
     <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1717,18 +1766,18 @@
     </row>
     <row r="27" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
-      <c r="B27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
@@ -1748,10 +1797,10 @@
       <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="24"/>
+      <c r="A29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1766,21 +1815,21 @@
     </row>
     <row r="30" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -1788,17 +1837,17 @@
     <row r="31" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
@@ -1810,13 +1859,13 @@
       <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="D32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -1829,12 +1878,12 @@
       <c r="C33" s="10">
         <v>2</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="D33" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -1848,12 +1897,12 @@
       <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="D34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1877,10 +1926,10 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="23"/>
+      <c r="A36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="31"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -1895,60 +1944,60 @@
     </row>
     <row r="37" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
@@ -1967,28 +2016,28 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+    </row>
+    <row r="43" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="43" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -2004,16 +2053,16 @@
     </row>
     <row r="44" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2025,11 +2074,11 @@
     <row r="45" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2044,12 +2093,12 @@
     </row>
     <row r="46" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
-      <c r="B46" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="25"/>
+      <c r="B46" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22"/>
       <c r="D46" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2065,11 +2114,11 @@
     <row r="47" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2085,11 +2134,11 @@
     <row r="48" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2119,11 +2168,11 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -2138,23 +2187,23 @@
     </row>
     <row r="51" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
     </row>
     <row r="52" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
@@ -2173,24 +2222,24 @@
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A53" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
+      <c r="A53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
     </row>
     <row r="54" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A54" s="17"/>
@@ -2210,7 +2259,7 @@
     </row>
     <row r="55" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2228,24 +2277,24 @@
     </row>
     <row r="56" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
     </row>
     <row r="57" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
@@ -2265,7 +2314,7 @@
     </row>
     <row r="58" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2283,13 +2332,13 @@
     </row>
     <row r="59" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -2306,20 +2355,20 @@
     <row r="60" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
@@ -2336,24 +2385,24 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A62" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
+      <c r="A62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
     </row>
     <row r="63" spans="1:16" ht="24" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
@@ -2373,7 +2422,7 @@
     </row>
     <row r="64" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2389,17 +2438,17 @@
     </row>
     <row r="65" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A65" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
     </row>
@@ -2416,10 +2465,10 @@
       <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A67" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="22"/>
+      <c r="A67" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="28"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -2431,30 +2480,30 @@
     </row>
     <row r="68" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A68" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -2478,7 +2527,7 @@
     </row>
     <row r="71" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A71" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2492,45 +2541,45 @@
     </row>
     <row r="72" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A72" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
     </row>
     <row r="74" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+    </row>
+    <row r="76" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A76" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-    </row>
-    <row r="76" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A76" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -2546,19 +2595,19 @@
     </row>
     <row r="77" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A77" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -2569,21 +2618,21 @@
     <row r="78" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
@@ -2603,10 +2652,10 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A80" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="25"/>
+      <c r="A80" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="22"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -2622,41 +2671,41 @@
     </row>
     <row r="81" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
     </row>
     <row r="82" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
@@ -2665,24 +2714,24 @@
       <c r="N82" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A85" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
+      <c r="A85" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
     </row>
     <row r="86" spans="1:16" ht="24" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
@@ -2701,10 +2750,10 @@
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A87" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="25"/>
+      <c r="A87" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="22"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
@@ -2718,20 +2767,20 @@
     </row>
     <row r="88" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="90" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A90" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -2740,36 +2789,94 @@
     </row>
     <row r="91" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A91" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+    </row>
+    <row r="93" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A93" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A94" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+    </row>
+    <row r="95" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A96" s="16"/>
+    </row>
+    <row r="98" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A98" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-    </row>
-    <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A95" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="H96" s="10"/>
-      <c r="I96" s="18" t="s">
-        <v>42</v>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="H99" s="10"/>
+      <c r="I99" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="C78:M78"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C81:P81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C77:H77"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A62:P62"/>
     <mergeCell ref="D21:I21"/>
@@ -2786,39 +2893,6 @@
     <mergeCell ref="C60:L60"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="A41:N41"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="C78:M78"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C81:P81"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="B56:O56"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2830,21 +2904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A5C39BE11199784C9B7F7890384D0CDA" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7f693609d05fcfc89873f63b0def8e36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="648e9bf0-2891-42f6-850e-b0d2d53113d8" xmlns:ns4="265e1645-2fc3-49ad-9868-999aa0571196" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbd7c685af4c677c34eece395c9f116e" ns3:_="" ns4:_="">
     <xsd:import namespace="648e9bf0-2891-42f6-850e-b0d2d53113d8"/>
@@ -3053,32 +3112,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85966BA2-E40C-4C34-B199-9B2416616277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="265e1645-2fc3-49ad-9868-999aa0571196"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="648e9bf0-2891-42f6-850e-b0d2d53113d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E212094-37FE-4D69-A3EF-DA24F0EB5D98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAEA8847-5F7A-462B-BBEA-C663F700372D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3096,4 +3145,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E212094-37FE-4D69-A3EF-DA24F0EB5D98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85966BA2-E40C-4C34-B199-9B2416616277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="265e1645-2fc3-49ad-9868-999aa0571196"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="648e9bf0-2891-42f6-850e-b0d2d53113d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>